--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD33E52-96F1-E54F-A133-B8506B1238A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9AD33E52-96F1-E54F-A133-B8506B1238A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D18844F-60FF-4BB9-9E30-7F455220AA2A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>180</v>
       </c>
@@ -480,7 +484,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>175</v>
       </c>
@@ -497,7 +501,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +518,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>178</v>
       </c>
@@ -531,7 +535,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>192</v>
       </c>
@@ -548,7 +552,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -565,7 +569,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>156</v>
       </c>
@@ -582,7 +586,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>166</v>
       </c>
@@ -599,7 +603,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>155</v>
       </c>
@@ -616,7 +620,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>145</v>
       </c>
@@ -633,7 +637,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>165</v>
       </c>
@@ -647,7 +651,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>133</v>
       </c>
@@ -664,7 +668,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>166</v>
       </c>
@@ -681,7 +685,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>154</v>
       </c>
@@ -709,14 +713,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -727,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -749,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -760,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -771,7 +775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
